--- a/SP_Sklad/TempLate/Expedition.xlsx
+++ b/SP_Sklad/TempLate/Expedition.xlsx
@@ -10,18 +10,18 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DocList">Лист1!$A$9:$F$10</definedName>
+    <definedName name="DocList">Лист1!$A$10:$J$11</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Машина:</t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">ЕКСПЕДИЦІЯ № </t>
   </si>
   <si>
-    <t>Дата:</t>
-  </si>
-  <si>
     <t>Провірив(ла)</t>
   </si>
   <si>
@@ -54,16 +51,35 @@
   </si>
   <si>
     <t>Кількість переважено з тарою</t>
+  </si>
+  <si>
+    <t>Дата перевірки</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
+  <si>
+    <t>Початок погрузки:</t>
+  </si>
+  <si>
+    <t>Закінчення погрузки</t>
+  </si>
+  <si>
+    <t>Всього, кг.</t>
+  </si>
+  <si>
+    <t>Упаковка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -156,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -251,11 +267,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -294,9 +389,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -315,11 +407,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,185 +810,276 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="18" customHeight="1">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:18" ht="18" customHeight="1">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="14" t="e">
+      <c r="C1" s="14" t="e">
         <f>Expedition_NUM</f>
         <v>#NAME?</v>
       </c>
+      <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="2:14" ht="18" customHeight="1">
+      <c r="F1" s="25"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="2:18" ht="13.5" customHeight="1">
       <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="2:14" ht="18.75" customHeight="1">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" ht="18.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23" t="e">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="e">
         <f>Expedition_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="2:14" ht="14.25" customHeight="1">
+      <c r="E3" s="7"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1">
       <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="22" t="e">
+        <f>Expedition_UpdatedAt</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:18" ht="17.25" customHeight="1">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="e">
+      <c r="C5" s="9" t="e">
         <f>Expedition_CarName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1">
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="e">
-        <f>Expedition_CarNumber</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="6" customHeight="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" customHeight="1">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="e">
+        <f>Expedition_CarNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="2:18" ht="6" customHeight="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" ht="14.25" customHeight="1">
+      <c r="B8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="F8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="I8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.5" customHeight="1">
-      <c r="B9" s="15" t="e">
+    </row>
+    <row r="9" spans="2:18" ht="28.5" customHeight="1">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B10" s="34" t="e">
+        <f>DocList_KaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="24" t="e">
+        <f>DocList_OnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="15" t="e">
         <f>DocList_MeasuresName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="16" t="e">
+      <c r="F10" s="16" t="e">
         <f>DocList_Amount</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="22" t="e">
+      <c r="G10" s="21" t="e">
         <f>DocList_WbAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="16" t="e">
+      <c r="H10" s="16" t="e">
         <f>DocList_TotalWeight</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="17" t="e">
+      <c r="I10" s="16" t="e">
+        <f>DocList_PacksQuantity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="17" t="e">
         <f>DocList_TotalTareQuantity</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="18" t="s">
+    <row r="11" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="12.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75">
-      <c r="B13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="20" t="e">
+    <row r="12" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" ht="17.25" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="27" t="e">
+        <f>Expedition_TotalKilograms</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.75">
+      <c r="B15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="e">
         <f>Expedition_PersonName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
+  <mergeCells count="9">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Expedition.xlsx
+++ b/SP_Sklad/TempLate/Expedition.xlsx
@@ -415,6 +415,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,51 +939,51 @@
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B10" s="34" t="e">
+      <c r="B10" s="29" t="e">
         <f>DocList_KaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="24" t="e">
-        <f>DocList_OnDate</f>
+        <f>DocList_CreatedAt</f>
         <v>#NAME?</v>
       </c>
       <c r="E10" s="15" t="e">
@@ -1020,7 +1020,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="28" t="s">
         <v>2</v>
       </c>
     </row>

--- a/SP_Sklad/TempLate/Expedition.xlsx
+++ b/SP_Sklad/TempLate/Expedition.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Машина:</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Упаковка</t>
+  </si>
+  <si>
+    <t>Примітка</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,8 +418,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -424,12 +436,6 @@
     <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -441,6 +447,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,15 +827,16 @@
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18" customHeight="1">
@@ -939,49 +949,53 @@
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>8</v>
       </c>
+      <c r="K8" s="30" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B10" s="29" t="e">
+      <c r="B10" s="32" t="e">
         <f>DocList_KaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="24" t="e">
         <f>DocList_CreatedAt</f>
         <v>#NAME?</v>
@@ -1002,12 +1016,16 @@
         <f>DocList_TotalWeight</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="16" t="e">
+      <c r="I10" s="38" t="e">
         <f>DocList_PacksQuantity</f>
         <v>#NAME?</v>
       </c>
       <c r="J10" s="17" t="e">
-        <f>DocList_TotalTareQuantity</f>
+        <f>DocList_TareQuantity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="17" t="e">
+        <f>DocList_WbNotes</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1023,6 +1041,7 @@
       <c r="J11" s="28" t="s">
         <v>2</v>
       </c>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="2:18" ht="12.75" customHeight="1">
       <c r="B12" s="2"/>
@@ -1070,7 +1089,8 @@
       <c r="L15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="G8:G9"/>

--- a/SP_Sklad/TempLate/Expedition.xlsx
+++ b/SP_Sklad/TempLate/Expedition.xlsx
@@ -10,18 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DocList">Лист1!$A$10:$J$11</definedName>
+    <definedName name="DocList">Лист1!$A$11:$K$12</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Машина:</t>
   </si>
@@ -65,13 +66,25 @@
     <t>Закінчення погрузки</t>
   </si>
   <si>
+    <t>Упаковка</t>
+  </si>
+  <si>
+    <t>Примітка</t>
+  </si>
+  <si>
     <t>Всього, кг.</t>
   </si>
   <si>
-    <t>Упаковка</t>
-  </si>
-  <si>
-    <t>Примітка</t>
+    <t>Тара</t>
+  </si>
+  <si>
+    <t>Всього з тарою</t>
+  </si>
+  <si>
+    <t>Номер документа</t>
+  </si>
+  <si>
+    <t>Водій:</t>
   </si>
 </sst>
 </file>
@@ -175,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -349,11 +362,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -395,61 +423,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,6 +568,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -819,7 +862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:S18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -827,19 +870,20 @@
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18" customHeight="1">
+    <row r="1" spans="2:19" ht="18" customHeight="1">
       <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
@@ -847,52 +891,56 @@
         <f>Expedition_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="25"/>
-      <c r="H1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="23"/>
       <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="2:18" ht="13.5" customHeight="1">
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="2:19" ht="13.5" customHeight="1">
       <c r="B2" s="12"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="2:18" ht="18.75" customHeight="1">
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="2:19" ht="19.5" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="e">
+      <c r="C3" s="20" t="e">
         <f>Expedition_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="7"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="2:19" ht="19.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22" t="e">
+      <c r="C4" s="20" t="e">
         <f>Expedition_UpdatedAt</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="20"/>
+      <c r="F4" s="7"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:18" ht="17.25" customHeight="1">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -900,18 +948,19 @@
         <f>Expedition_CarName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="M5" s="8"/>
+      <c r="J5" s="9"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="2:18" ht="15" customHeight="1">
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" ht="19.5" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -919,192 +968,263 @@
         <f>Expedition_CarNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="M6" s="8"/>
+      <c r="K6" s="9"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="2:18" ht="6" customHeight="1">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="2:19" ht="19.5" customHeight="1">
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="e">
+        <f>Expedition_DriverName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="9"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="2:18" ht="14.25" customHeight="1">
-      <c r="B8" s="34" t="s">
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="2:19" ht="9" customHeight="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="2:19" ht="14.25" customHeight="1">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="30" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="H9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="I9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="28.5" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B10" s="32" t="e">
+    </row>
+    <row r="10" spans="2:19" ht="38.25" customHeight="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.5" customHeight="1">
+      <c r="B11" s="34" t="e">
         <f>DocList_KaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="24" t="e">
+      <c r="C11" s="35"/>
+      <c r="D11" s="29" t="e">
+        <f>DocList_WbNum</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="22" t="e">
         <f>DocList_CreatedAt</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="15" t="e">
+      <c r="F11" s="15" t="e">
         <f>DocList_MeasuresName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="16" t="e">
+      <c r="G11" s="16" t="e">
         <f>DocList_Amount</f>
         <v>#NAME?</v>
       </c>
-      <c r="G10" s="21" t="e">
+      <c r="H11" s="19" t="e">
         <f>DocList_WbAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="H10" s="16" t="e">
+      <c r="I11" s="16" t="e">
         <f>DocList_TotalWeight</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="38" t="e">
+      <c r="J11" s="26" t="e">
         <f>DocList_PacksQuantity</f>
         <v>#NAME?</v>
       </c>
-      <c r="J10" s="17" t="e">
+      <c r="K11" s="17" t="e">
         <f>DocList_TareQuantity</f>
         <v>#NAME?</v>
       </c>
-      <c r="K10" s="17" t="e">
+      <c r="L11" s="17" t="e">
         <f>DocList_WbNotes</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="28" t="s">
+    <row r="12" spans="2:19" ht="15.75" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" ht="17.25" customHeight="1">
-      <c r="B13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="27" t="e">
-        <f>Expedition_TotalKilograms</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="2:19" ht="12.75" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.75">
-      <c r="B15" s="18" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" ht="17.25" customHeight="1">
+      <c r="B14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="28" t="e">
+        <f>Expedition_TotalKilograms</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:19" ht="17.25" customHeight="1">
+      <c r="B15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="28" t="e">
+        <f>K12*1.8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" ht="17.25" customHeight="1">
+      <c r="B16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="28" t="e">
+        <f>SUM(C14:C15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75">
+      <c r="B18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="e">
-        <f>Expedition_PersonName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="C18" s="42" t="e">
+        <f t="shared" ref="C18:F18" si="0">Expedition_PersonName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="I8:I9"/>
+  <mergeCells count="12">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>